--- a/abel_results_bockasten_gaussian_adjusted.xlsx
+++ b/abel_results_bockasten_gaussian_adjusted.xlsx
@@ -470,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81360.9212634537</v>
+        <v>2945.309397721254</v>
       </c>
       <c r="C2" t="n">
-        <v>1601020.066389023</v>
+        <v>43016.67860263007</v>
       </c>
       <c r="D2" t="n">
-        <v>2795341.899295112</v>
+        <v>80619.23175511241</v>
       </c>
       <c r="E2" t="n">
-        <v>465309.3361240395</v>
+        <v>13282.8968114429</v>
       </c>
       <c r="F2" t="n">
-        <v>1781070.624245212</v>
+        <v>68827.17198142297</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>0.2945</v>
       </c>
       <c r="B3" t="n">
-        <v>41371.08278782498</v>
+        <v>2599.130121268797</v>
       </c>
       <c r="C3" t="n">
-        <v>827238.9008267047</v>
+        <v>44202.90254023967</v>
       </c>
       <c r="D3" t="n">
-        <v>1459272.895956588</v>
+        <v>79174.71623100508</v>
       </c>
       <c r="E3" t="n">
-        <v>250411.6143539576</v>
+        <v>12984.24308044068</v>
       </c>
       <c r="F3" t="n">
-        <v>953650.0216773211</v>
+        <v>64725.7781004174</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>0.6045</v>
       </c>
       <c r="B4" t="n">
-        <v>26320.10199955593</v>
+        <v>2174.751798759332</v>
       </c>
       <c r="C4" t="n">
-        <v>515636.3239736742</v>
+        <v>37972.83121193384</v>
       </c>
       <c r="D4" t="n">
-        <v>922161.9546945265</v>
+        <v>67759.41753279197</v>
       </c>
       <c r="E4" t="n">
-        <v>169521.7015922808</v>
+        <v>11781.48835229218</v>
       </c>
       <c r="F4" t="n">
-        <v>620580.0996014774</v>
+        <v>54357.4083652187</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>0.9145</v>
       </c>
       <c r="B5" t="n">
-        <v>17268.61620400724</v>
+        <v>1691.05816107243</v>
       </c>
       <c r="C5" t="n">
-        <v>319514.4099140096</v>
+        <v>28282.17480083001</v>
       </c>
       <c r="D5" t="n">
-        <v>580332.4862005047</v>
+        <v>50548.14625228463</v>
       </c>
       <c r="E5" t="n">
-        <v>117838.3716407978</v>
+        <v>9486.773812939629</v>
       </c>
       <c r="F5" t="n">
-        <v>404448.86044898</v>
+        <v>40797.99742546564</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1.2245</v>
       </c>
       <c r="B6" t="n">
-        <v>10903.37387052075</v>
+        <v>1212.318035772963</v>
       </c>
       <c r="C6" t="n">
-        <v>183664.7848220493</v>
+        <v>18419.21592317931</v>
       </c>
       <c r="D6" t="n">
-        <v>345951.3501908871</v>
+        <v>34998.42647497744</v>
       </c>
       <c r="E6" t="n">
-        <v>79678.24257736816</v>
+        <v>7259.763690077986</v>
       </c>
       <c r="F6" t="n">
-        <v>246343.1243239017</v>
+        <v>27717.84833348723</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1.5345</v>
       </c>
       <c r="B7" t="n">
-        <v>6473.713809202213</v>
+        <v>799.5104997734074</v>
       </c>
       <c r="C7" t="n">
-        <v>95698.61813179644</v>
+        <v>10518.22607351719</v>
       </c>
       <c r="D7" t="n">
-        <v>184684.6976598152</v>
+        <v>21152.46379954636</v>
       </c>
       <c r="E7" t="n">
-        <v>50039.80135549412</v>
+        <v>4921.50903507092</v>
       </c>
       <c r="F7" t="n">
-        <v>134195.5567286092</v>
+        <v>16130.72329829179</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1.8445</v>
       </c>
       <c r="B8" t="n">
-        <v>3576.145782259969</v>
+        <v>484.9012618380088</v>
       </c>
       <c r="C8" t="n">
-        <v>44720.81065068172</v>
+        <v>5274.821306154793</v>
       </c>
       <c r="D8" t="n">
-        <v>88579.99063378725</v>
+        <v>11192.83152222265</v>
       </c>
       <c r="E8" t="n">
-        <v>29791.77884669519</v>
+        <v>3192.977915421682</v>
       </c>
       <c r="F8" t="n">
-        <v>67129.70169290165</v>
+        <v>8558.429282197634</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>2.1545</v>
       </c>
       <c r="B9" t="n">
-        <v>1827.393524232816</v>
+        <v>270.9203492734052</v>
       </c>
       <c r="C9" t="n">
-        <v>18634.76492448591</v>
+        <v>2326.937729891402</v>
       </c>
       <c r="D9" t="n">
-        <v>39290.52917123777</v>
+        <v>5561.122892886171</v>
       </c>
       <c r="E9" t="n">
-        <v>16076.38206996389</v>
+        <v>1836.086869805928</v>
       </c>
       <c r="F9" t="n">
-        <v>30166.44319229156</v>
+        <v>4084.045921220727</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>2.4645</v>
       </c>
       <c r="B10" t="n">
-        <v>866.0677069356813</v>
+        <v>138.86099986545</v>
       </c>
       <c r="C10" t="n">
-        <v>6942.184770572011</v>
+        <v>912.4629786844404</v>
       </c>
       <c r="D10" t="n">
-        <v>15155.63784915339</v>
+        <v>2402.045313582924</v>
       </c>
       <c r="E10" t="n">
-        <v>8264.121916993558</v>
+        <v>1010.669422610251</v>
       </c>
       <c r="F10" t="n">
-        <v>12209.9547502364</v>
+        <v>1761.52269342939</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>2.7745</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>81.74021036489538</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>353.6864953561275</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1096.295750788272</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>627.0273462560226</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>776.1865927202358</v>
       </c>
     </row>
   </sheetData>
